--- a/Số liệu.xlsx
+++ b/Số liệu.xlsx
@@ -1,21 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Internet User**</t>
+  </si>
+  <si>
+    <t>Penetration (% of Pop)</t>
+  </si>
+  <si>
+    <t>World population</t>
+  </si>
+  <si>
+    <t>Non-user (Internetless)</t>
+  </si>
+  <si>
+    <t>1 Year User Change</t>
+  </si>
+  <si>
+    <t>1 Year User Change(%)</t>
+  </si>
+  <si>
+    <t>World Pop change</t>
+  </si>
+  <si>
+    <t>7,349.472,099</t>
+  </si>
+  <si>
+    <t>6,435,542 408</t>
+  </si>
+  <si>
+    <t>6,763,732 879</t>
+  </si>
+  <si>
+    <t>Số lượng người dùng Internet toàn cầu mỗi năm kể từ năm 2000-2016</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0;[Red]#,##0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +69,101 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +171,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +562,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="17">
+        <v>34249712357</v>
+      </c>
+      <c r="C4" s="18">
+        <v>46.1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>7432663275</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4007692038</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>238975082</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3185996155</v>
+      </c>
+      <c r="C5" s="18">
+        <v>43.4</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4163475944</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="G5" s="10">
+        <v>229610586</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f>A5-1</f>
+        <v>2014</v>
+      </c>
+      <c r="B6" s="20">
+        <v>2956385569</v>
+      </c>
+      <c r="C6" s="21">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D6" s="22">
+        <v>7265785946</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4309400377</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>227957462</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f t="shared" ref="A7:A19" si="0">A6-1</f>
+        <v>2013</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2728428107</v>
+      </c>
+      <c r="C7" s="23">
+        <v>38</v>
+      </c>
+      <c r="D7" s="22">
+        <v>7181715139</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4453287032</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9.4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>233691859</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2494730245</v>
+      </c>
+      <c r="C8" s="18">
+        <v>35.1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>7097500453</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4602764205</v>
+      </c>
+      <c r="F8" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="G8" s="10">
+        <v>262778889</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2231957359</v>
+      </c>
+      <c r="C9" s="18">
+        <v>31.8</v>
+      </c>
+      <c r="D9" s="22">
+        <v>7013427052</v>
+      </c>
+      <c r="E9" s="8">
+        <v>4781469693</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10.3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>208754385</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B10" s="20">
+        <v>2023202974</v>
+      </c>
+      <c r="C10" s="18">
+        <v>29.2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6929725043</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4906522069</v>
+      </c>
+      <c r="F10" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>256799160</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1766403814</v>
+      </c>
+      <c r="C11" s="18">
+        <v>25.8</v>
+      </c>
+      <c r="D11" s="22">
+        <v>6846479521</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5080075707</v>
+      </c>
+      <c r="F11" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>191336294</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1575067520</v>
+      </c>
+      <c r="C12" s="21">
+        <v>23.3</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5188665359</v>
+      </c>
+      <c r="F12" s="9">
+        <v>14.7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>201840532</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1373220385</v>
+      </c>
+      <c r="C13" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="D13" s="19">
+        <v>6881607320</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5308380332</v>
+      </c>
+      <c r="F13" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>210310170</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1162916818</v>
+      </c>
+      <c r="C14" s="18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D14" s="22">
+        <v>6600220247</v>
+      </c>
+      <c r="E14" s="8">
+        <v>5437303429</v>
+      </c>
+      <c r="F14" s="9">
+        <v>12.9</v>
+      </c>
+      <c r="G14" s="10">
+        <v>132815529</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1030101289</v>
+      </c>
+      <c r="C15" s="18">
+        <v>15.8</v>
+      </c>
+      <c r="D15" s="22">
+        <v>6519635550</v>
+      </c>
+      <c r="E15" s="8">
+        <v>5489534561</v>
+      </c>
+      <c r="F15" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="G15" s="10">
+        <v>116773518</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f>A15-1</f>
+        <v>2004</v>
+      </c>
+      <c r="B16" s="20">
+        <v>913327771</v>
+      </c>
+      <c r="C16" s="18">
+        <v>14.2</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>5526514637</v>
+      </c>
+      <c r="F16" s="9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G16" s="10">
+        <v>131891788</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="B17" s="20">
+        <v>781435983</v>
+      </c>
+      <c r="C17" s="18">
+        <v>12.3</v>
+      </c>
+      <c r="D17" s="19">
+        <v>6360764684</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5579328701</v>
+      </c>
+      <c r="F17" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="G17" s="10">
+        <v>116370969</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="B18" s="20">
+        <v>665065014</v>
+      </c>
+      <c r="C18" s="18">
+        <v>10.6</v>
+      </c>
+      <c r="D18" s="22">
+        <v>6282301767</v>
+      </c>
+      <c r="E18" s="8">
+        <v>5617236753</v>
+      </c>
+      <c r="F18" s="9">
+        <v>32.4</v>
+      </c>
+      <c r="G18" s="10">
+        <v>162772769</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="B19" s="20">
+        <v>502292245</v>
+      </c>
+      <c r="C19" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="D19" s="22">
+        <v>6204310739</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5702018494</v>
+      </c>
+      <c r="F19" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>87497288</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f>A19-1</f>
+        <v>2000</v>
+      </c>
+      <c r="B20" s="20">
+        <v>414794957</v>
+      </c>
+      <c r="C20" s="18">
+        <v>6.8</v>
+      </c>
+      <c r="D20" s="22">
+        <v>6126622121</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5711827164</v>
+      </c>
+      <c r="F20" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>133257305</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Số liệu.xlsx
+++ b/Số liệu.xlsx
@@ -4,17 +4,72 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Sốliệu.xlsxData1" hidden="1">Data[]</definedName>
+    <definedName name="Slicer_1_Year_User_Change">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId4"/>
+    <pivotCache cacheId="69" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
+      <x14:pivotCaches>
+        <pivotCache cacheId="45" r:id="rId6"/>
+      </x14:pivotCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Data-cf277d19-48b3-4ef1-a2a3-1cb7b98e1e86" name="Data" connection="WorksheetConnection_Số liệu.xlsx!Data"/>
+        </x15:modelTables>
+      </x15:dataModel>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" name="WorksheetConnection_Số liệu.xlsx!Data" type="102" refreshedVersion="5" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Data-cf277d19-48b3-4ef1-a2a3-1cb7b98e1e86" autoDelete="1">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sốliệu.xlsxData1"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -51,17 +106,26 @@
   <si>
     <t>Số lượng người dùng Internet toàn cầu mỗi năm kể từ năm 2000-2016</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Penetration (% of Pop)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +200,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +248,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,63 +283,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,19 +425,432 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="0.00000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -274,6 +861,2727 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1503498069567243E-2"/>
+          <c:y val="5.6940105047710389E-2"/>
+          <c:w val="0.90167052647830781"/>
+          <c:h val="0.84611154764227525"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internet User**</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$4:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0;[Red]#,##0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>34249712357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3185996155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2956385569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2728428107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2494730245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2231957359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023202974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1766403814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1575067520</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1373220385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1162916818</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1030101289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>913327771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>781435983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>665065014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>502292245</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>414794957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-user (Internetless)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Data!$A$4:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$4:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4007692038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4163475944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4309400377</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4453287032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4602764205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4781469693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4906522069</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5080075707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5188665359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5308380332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5437303429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5489534561</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5526514637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5579328701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5617236753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5702018494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5711827164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1847468352"/>
+        <c:axId val="-1847480320"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Penetration (% of Pop)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$C$4:$C$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>46.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43.4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40.700000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>35.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>31.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>25.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>23.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20.6</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>17.600000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>14.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>12.3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>World population</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$D$4:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>7432663275</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7265785946</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7181715139</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7097500453</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7013427052</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6929725043</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6846479521</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6881607320</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6600220247</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6519635550</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6360764684</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6282301767</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6204310739</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6126622121</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1 Year User Change(%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$F$4:$F$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0.0;[Red]#,##0.0</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>9.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>11.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10.3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14.7</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18.100000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>12.9</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12.8</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>16.899999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>32.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>21.1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>47.3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1 Year User Change</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$G$4:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0;[Red]#,##0</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>238975082</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>229610586</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>227957462</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>233691859</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>262778889</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>208754385</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>256799160</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>191336294</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>201840532</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>210310170</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>132815529</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>116773518</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>131891788</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>116370969</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>162772769</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>87497288</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>133257305</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>World Pop change</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$A$4:$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Data!$H$4:$H$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>1.1299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1499999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.17</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.19</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.22</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.23</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.23</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.24</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.24</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.24</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.26</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.27</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.28</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1847468352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1847480320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1847480320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0;[Red]#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1847468352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="1 Year User Change"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="1 Year User Change"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5524500" y="2495550"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43614.67899375" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Data"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="2016" count="17">
+        <n v="2016"/>
+        <n v="2015"/>
+        <n v="2014"/>
+        <n v="2013"/>
+        <n v="2012"/>
+        <n v="2011"/>
+        <n v="2010"/>
+        <n v="2009"/>
+        <n v="2008"/>
+        <n v="2007"/>
+        <n v="2006"/>
+        <n v="2005"/>
+        <n v="2004"/>
+        <n v="2003"/>
+        <n v="2002"/>
+        <n v="2001"/>
+        <n v="2000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Internet User**" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="414794957" maxValue="34249712357" count="17">
+        <n v="34249712357"/>
+        <n v="3185996155"/>
+        <n v="2956385569"/>
+        <n v="2728428107"/>
+        <n v="2494730245"/>
+        <n v="2231957359"/>
+        <n v="2023202974"/>
+        <n v="1766403814"/>
+        <n v="1575067520"/>
+        <n v="1373220385"/>
+        <n v="1162916818"/>
+        <n v="1030101289"/>
+        <n v="913327771"/>
+        <n v="781435983"/>
+        <n v="665065014"/>
+        <n v="502292245"/>
+        <n v="414794957"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Penetration (% of Pop)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.8" maxValue="46.1" count="17">
+        <n v="46.1"/>
+        <n v="43.4"/>
+        <n v="40.700000000000003"/>
+        <n v="38"/>
+        <n v="35.1"/>
+        <n v="31.8"/>
+        <n v="29.2"/>
+        <n v="25.8"/>
+        <n v="23.3"/>
+        <n v="20.6"/>
+        <n v="17.600000000000001"/>
+        <n v="15.8"/>
+        <n v="14.2"/>
+        <n v="12.3"/>
+        <n v="10.6"/>
+        <n v="8.1"/>
+        <n v="6.8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="World population" numFmtId="3">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="6126622121" maxValue="7432663275"/>
+    </cacheField>
+    <cacheField name="Non-user (Internetless)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4007692038" maxValue="5711827164" count="17">
+        <n v="4007692038"/>
+        <n v="4163475944"/>
+        <n v="4309400377"/>
+        <n v="4453287032"/>
+        <n v="4602764205"/>
+        <n v="4781469693"/>
+        <n v="4906522069"/>
+        <n v="5080075707"/>
+        <n v="5188665359"/>
+        <n v="5308380332"/>
+        <n v="5437303429"/>
+        <n v="5489534561"/>
+        <n v="5526514637"/>
+        <n v="5579328701"/>
+        <n v="5617236753"/>
+        <n v="5702018494"/>
+        <n v="5711827164"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1 Year User Change(%)" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5" maxValue="47.3"/>
+    </cacheField>
+    <cacheField name="1 Year User Change" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="87497288" maxValue="262778889"/>
+    </cacheField>
+    <cacheField name="World Pop change" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1299999999999999" maxValue="1.28"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Author" refreshedDate="43614.68812997685" backgroundQuery="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Sum of Penetration (% of Pop)]" caption="Sum of Penetration (% of Pop)" numFmtId="0" hierarchy="8" level="32767"/>
+    <cacheField name="[Data].[Year].[Year]" caption="Year" numFmtId="0" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2003" maxValue="2003" count="1">
+        <n v="2003"/>
+      </sharedItems>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{4F2E5C28-24EA-4eb8-9CBF-B6C8F9C3D259}">
+          <x15:cachedUniqueNames>
+            <x15:cachedUniqueName index="0" name="[Data].[Year].&amp;[2003]"/>
+          </x15:cachedUniqueNames>
+        </ext>
+      </extLst>
+    </cacheField>
+    <cacheField name="[Data].[1 Year User Change].[1 Year User Change]" caption="1 Year User Change" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Data].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Data].[Year].[All]" allUniqueName="[Data].[Year].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[Internet User**]" caption="Internet User**" attribute="1" defaultMemberUniqueName="[Data].[Internet User**].[All]" allUniqueName="[Data].[Internet User**].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Penetration (% of Pop)]" caption="Penetration (% of Pop)" attribute="1" defaultMemberUniqueName="[Data].[Penetration (% of Pop)].[All]" allUniqueName="[Data].[Penetration (% of Pop)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[World population]" caption="World population" attribute="1" defaultMemberUniqueName="[Data].[World population].[All]" allUniqueName="[Data].[World population].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Non-user (Internetless)]" caption="Non-user (Internetless)" attribute="1" defaultMemberUniqueName="[Data].[Non-user (Internetless)].[All]" allUniqueName="[Data].[Non-user (Internetless)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[1 Year User Change(%)]" caption="1 Year User Change(%)" attribute="1" defaultMemberUniqueName="[Data].[1 Year User Change(%)].[All]" allUniqueName="[Data].[1 Year User Change(%)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[1 Year User Change]" caption="1 Year User Change" attribute="1" defaultMemberUniqueName="[Data].[1 Year User Change].[All]" allUniqueName="[Data].[1 Year User Change].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Data].[World Pop change]" caption="World Pop change" attribute="1" defaultMemberUniqueName="[Data].[World Pop change].[All]" allUniqueName="[Data].[World Pop change].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Penetration (% of Pop)]" caption="Sum of Penetration (% of Pop)" measure="1" displayFolder="" measureGroup="Data" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of World Pop change]" caption="Sum of World Pop change" measure="1" displayFolder="" measureGroup="Data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Data]" caption="__XL_Count Data" measure="1" displayFolder="" measureGroup="Data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension name="Data" uniqueName="[Data]" caption="Data"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Data" caption="Data"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="0"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Author" refreshedDate="43614.688071759258" backgroundQuery="1" createdVersion="3" refreshedVersion="5" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="12">
+    <cacheHierarchy uniqueName="[Data].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Data].[Year].[All]" allUniqueName="[Data].[Year].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Internet User**]" caption="Internet User**" attribute="1" defaultMemberUniqueName="[Data].[Internet User**].[All]" allUniqueName="[Data].[Internet User**].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Penetration (% of Pop)]" caption="Penetration (% of Pop)" attribute="1" defaultMemberUniqueName="[Data].[Penetration (% of Pop)].[All]" allUniqueName="[Data].[Penetration (% of Pop)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[World population]" caption="World population" attribute="1" defaultMemberUniqueName="[Data].[World population].[All]" allUniqueName="[Data].[World population].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[Non-user (Internetless)]" caption="Non-user (Internetless)" attribute="1" defaultMemberUniqueName="[Data].[Non-user (Internetless)].[All]" allUniqueName="[Data].[Non-user (Internetless)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[1 Year User Change(%)]" caption="1 Year User Change(%)" attribute="1" defaultMemberUniqueName="[Data].[1 Year User Change(%)].[All]" allUniqueName="[Data].[1 Year User Change(%)].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[1 Year User Change]" caption="1 Year User Change" attribute="1" defaultMemberUniqueName="[Data].[1 Year User Change].[All]" allUniqueName="[Data].[1 Year User Change].[All]" dimensionUniqueName="[Data]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Data].[World Pop change]" caption="World Pop change" attribute="1" defaultMemberUniqueName="[Data].[World Pop change].[All]" allUniqueName="[Data].[World Pop change].[All]" dimensionUniqueName="[Data]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Penetration (% of Pop)]" caption="Sum of Penetration (% of Pop)" measure="1" displayFolder="" measureGroup="Data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="2"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of World Pop change]" caption="Sum of World Pop change" measure="1" displayFolder="" measureGroup="Data" count="0">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Data]" caption="__XL_Count Data" measure="1" displayFolder="" measureGroup="Data" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count of Models]" caption="__XL_Count of Models" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="2" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7432663275"/>
+    <x v="0"/>
+    <n v="7.5"/>
+    <n v="238975082"/>
+    <n v="1.1299999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="7,349.472,099"/>
+    <x v="1"/>
+    <n v="7.8"/>
+    <n v="229610586"/>
+    <n v="1.1499999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7265785946"/>
+    <x v="2"/>
+    <n v="8.4"/>
+    <n v="227957462"/>
+    <n v="1.17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7181715139"/>
+    <x v="3"/>
+    <n v="9.4"/>
+    <n v="233691859"/>
+    <n v="1.19"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7097500453"/>
+    <x v="4"/>
+    <n v="11.8"/>
+    <n v="262778889"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="7013427052"/>
+    <x v="5"/>
+    <n v="10.3"/>
+    <n v="208754385"/>
+    <n v="1.21"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="6929725043"/>
+    <x v="6"/>
+    <n v="14.5"/>
+    <n v="256799160"/>
+    <n v="1.22"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="6846479521"/>
+    <x v="7"/>
+    <n v="12.1"/>
+    <n v="191336294"/>
+    <n v="1.22"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="6,763,732 879"/>
+    <x v="8"/>
+    <n v="14.7"/>
+    <n v="201840532"/>
+    <n v="1.23"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="6881607320"/>
+    <x v="9"/>
+    <n v="18.100000000000001"/>
+    <n v="210310170"/>
+    <n v="1.23"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="6600220247"/>
+    <x v="10"/>
+    <n v="12.9"/>
+    <n v="132815529"/>
+    <n v="1.24"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="6519635550"/>
+    <x v="11"/>
+    <n v="12.8"/>
+    <n v="116773518"/>
+    <n v="1.24"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <s v="6,435,542 408"/>
+    <x v="12"/>
+    <n v="16.899999999999999"/>
+    <n v="131891788"/>
+    <n v="1.24"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="6360764684"/>
+    <x v="13"/>
+    <n v="17.5"/>
+    <n v="116370969"/>
+    <n v="1.25"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="6282301767"/>
+    <x v="14"/>
+    <n v="32.4"/>
+    <n v="162772769"/>
+    <n v="1.26"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="6204310739"/>
+    <x v="15"/>
+    <n v="21.1"/>
+    <n v="87497288"/>
+    <n v="1.27"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="6126622121"/>
+    <x v="16"/>
+    <n v="47.3"/>
+    <n v="133257305"/>
+    <n v="1.28"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Penetration (% of Pop)" fld="0" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="12">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1">
+      <members count="1" level="1">
+        <member name="[Data].[1 Year User Change].&amp;[116370969]"/>
+      </members>
+    </pivotHierarchy>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Số liệu.xlsx!Data">
+        <x15:activeTabTopLevelEntity name="[Data]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0">
+      <items count="18">
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="18">
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Penetration (% of Pop)" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_1_Year_User_Change" sourceName="[Data].[1 Year User Change]">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <olap pivotCacheId="2">
+      <levels count="2">
+        <level uniqueName="[Data].[1 Year User Change].[(All)]" sourceCaption="(All)" count="0"/>
+        <level uniqueName="[Data].[1 Year User Change].[1 Year User Change]" sourceCaption="1 Year User Change" count="17">
+          <ranges>
+            <range startItem="0">
+              <i n="[Data].[1 Year User Change].&amp;[87497288]" c="87497288"/>
+              <i n="[Data].[1 Year User Change].&amp;[116370969]" c="116370969"/>
+              <i n="[Data].[1 Year User Change].&amp;[116773518]" c="116773518"/>
+              <i n="[Data].[1 Year User Change].&amp;[131891788]" c="131891788"/>
+              <i n="[Data].[1 Year User Change].&amp;[132815529]" c="132815529"/>
+              <i n="[Data].[1 Year User Change].&amp;[133257305]" c="133257305"/>
+              <i n="[Data].[1 Year User Change].&amp;[162772769]" c="162772769"/>
+              <i n="[Data].[1 Year User Change].&amp;[191336294]" c="191336294"/>
+              <i n="[Data].[1 Year User Change].&amp;[201840532]" c="201840532"/>
+              <i n="[Data].[1 Year User Change].&amp;[208754385]" c="208754385"/>
+              <i n="[Data].[1 Year User Change].&amp;[210310170]" c="210310170"/>
+              <i n="[Data].[1 Year User Change].&amp;[227957462]" c="227957462"/>
+              <i n="[Data].[1 Year User Change].&amp;[229610586]" c="229610586"/>
+              <i n="[Data].[1 Year User Change].&amp;[233691859]" c="233691859"/>
+              <i n="[Data].[1 Year User Change].&amp;[238975082]" c="238975082"/>
+              <i n="[Data].[1 Year User Change].&amp;[256799160]" c="256799160"/>
+              <i n="[Data].[1 Year User Change].&amp;[262778889]" c="262778889"/>
+            </range>
+          </ranges>
+        </level>
+      </levels>
+      <selections count="1">
+        <selection n="[Data].[1 Year User Change].&amp;[116370969]"/>
+      </selections>
+    </olap>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="1 Year User Change" cache="Slicer_1_Year_User_Change" caption="1 Year User Change" level="1" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Data" displayName="Data" ref="A3:H20" totalsRowShown="0" dataDxfId="13" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+  <autoFilter ref="A3:H20"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Year" dataDxfId="21">
+      <calculatedColumnFormula>A3-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Internet User**" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="Penetration (% of Pop)" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="World population" dataDxfId="18" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Non-user (Internetless)" dataDxfId="17"/>
+    <tableColumn id="6" name="1 Year User Change(%)" dataDxfId="16"/>
+    <tableColumn id="7" name="1 Year User Change" dataDxfId="15"/>
+    <tableColumn id="8" name="World Pop change" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,34 +3871,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="22">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22">
+        <v>12.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="17" width="16.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="34" width="29" customWidth="1"/>
+    <col min="35" max="35" width="26.85546875" customWidth="1"/>
+    <col min="36" max="36" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="22">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="22">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="22">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="22">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="22">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="22">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="22">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="22">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="22">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="22">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="22">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="22">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="22">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="22">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="22">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="22">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="19">
+        <v>419.40000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -612,490 +4150,522 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="23">
         <v>2016</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>34249712357</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="11">
         <v>46.1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="12">
         <v>7432663275</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4007692038</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>7.5</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>238975082</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="24">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="23">
         <v>2015</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="13">
         <v>3185996155</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <v>43.4</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>4163475944</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>7.8</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>229610586</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="24">
         <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="23">
         <f>A5-1</f>
         <v>2014</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="13">
         <v>2956385569</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="14">
         <v>40.700000000000003</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="15">
         <v>7265785946</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>4309400377</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>8.4</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>227957462</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="24">
         <v>1.17</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="23">
         <f t="shared" ref="A7:A19" si="0">A6-1</f>
         <v>2013</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="10">
         <v>2728428107</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>38</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="15">
         <v>7181715139</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>4453287032</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>9.4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>233691859</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="24">
         <v>1.19</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="10">
         <v>2494730245</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="11">
         <v>35.1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="15">
         <v>7097500453</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>4602764205</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>11.8</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>262778889</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="24">
         <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="13">
         <v>2231957359</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="11">
         <v>31.8</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="15">
         <v>7013427052</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>4781469693</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>10.3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>208754385</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="24">
         <v>1.21</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="13">
         <v>2023202974</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="11">
         <v>29.2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="15">
         <v>6929725043</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>4906522069</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>14.5</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>256799160</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="24">
         <v>1.22</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="13">
         <v>1766403814</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <v>25.8</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="15">
         <v>6846479521</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5080075707</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>12.1</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>191336294</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="24">
         <v>1.22</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="13">
         <v>1575067520</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>23.3</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>5188665359</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>14.7</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>201840532</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="24">
         <v>1.23</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="13">
         <v>1373220385</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="11">
         <v>20.6</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="12">
         <v>6881607320</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>5308380332</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>210310170</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="24">
         <v>1.23</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="13">
         <v>1162916818</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="11">
         <v>17.600000000000001</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="15">
         <v>6600220247</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>5437303429</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>12.9</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>132815529</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="24">
         <v>1.24</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="10">
         <v>1030101289</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="11">
         <v>15.8</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="15">
         <v>6519635550</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>5489534561</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>12.8</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>116773518</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="24">
         <v>1.24</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="23">
         <f>A15-1</f>
         <v>2004</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="13">
         <v>913327771</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="11">
         <v>14.2</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>5526514637</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>131891788</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="24">
         <v>1.24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="13">
         <v>781435983</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="11">
         <v>12.3</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="12">
         <v>6360764684</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>5579328701</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>17.5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>116370969</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="24">
         <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="13">
         <v>665065014</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="11">
         <v>10.6</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="15">
         <v>6282301767</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>5617236753</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>32.4</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>162772769</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="24">
         <v>1.26</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="13">
         <v>502292245</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="11">
         <v>8.1</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="15">
         <v>6204310739</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>5702018494</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>21.1</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>87497288</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="24">
         <v>1.27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="32">
         <f>A19-1</f>
         <v>2000</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="33">
         <v>414794957</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="34">
         <v>6.8</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="35">
         <v>6126622121</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="36">
         <v>5711827164</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="37">
         <v>47.3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="38">
         <v>133257305</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="39">
         <v>1.28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1103,5 +4673,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Số liệu.xlsx
+++ b/Số liệu.xlsx
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="46" r:id="rId3"/>
+    <pivotCache cacheId="50" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Row Labels</t>
   </si>
@@ -69,6 +69,9 @@
   <si>
     <t>SỐ LƯỢNG CÁC CÔNG TY FINTECH ĐƯỢC THÀNH LẬP THEO NĂM (2008-2017)</t>
   </si>
+  <si>
+    <t>source: https://tinnhanhchungkhoan.vn/fin-tech/cuoc-cach-mang-cua-fintech-da-chuyen-huong-245177.html</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +82,7 @@
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +94,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,6 +113,14 @@
       <b/>
       <sz val="14"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,13 +271,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,42 +334,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -486,13 +475,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -510,6 +492,38 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -645,7 +659,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -654,9 +667,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -761,7 +772,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -770,9 +780,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -877,7 +885,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -886,9 +893,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -993,7 +998,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -1002,9 +1006,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1991,7 +1993,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2028,14 +2029,1139 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -2116,7 +3242,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2131,7 +3257,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="16"/>
+        <c:idx val="29"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -2212,7 +3338,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2227,7 +3353,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="17"/>
+        <c:idx val="30"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -2308,7 +3434,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2323,7 +3449,7 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="18"/>
+        <c:idx val="31"/>
         <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
@@ -2404,1167 +3530,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="26"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="27"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="28"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="29"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="30"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="31"/>
-        <c:spPr>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:shade val="51000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="80000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                  <a:satMod val="130000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:shade val="94000"/>
-                  <a:satMod val="135000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="16200000" scaled="0"/>
-          </a:gradFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3675,7 +3641,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3709,7 +3675,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3721,7 +3687,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3783,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3851,7 +3817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3863,7 +3829,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,7 +3925,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3993,7 +3959,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4005,7 +3971,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,7 +4067,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4135,7 +4101,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4147,14 +4113,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inBase"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4164,11 +4130,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="797325568"/>
-        <c:axId val="797310336"/>
+        <c:axId val="797937600"/>
+        <c:axId val="797926720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="797325568"/>
+        <c:axId val="797937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797310336"/>
+        <c:crossAx val="797926720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4218,7 +4184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="797310336"/>
+        <c:axId val="797926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797325568"/>
+        <c:crossAx val="797937600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4951,8 +4917,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="YEAR "/>
@@ -4969,7 +4935,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5016,7 +4982,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43615.495856365742" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table4"/>
+    <worksheetSource name="Table4" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="YEAR " numFmtId="0">
@@ -5174,12 +5140,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
@@ -5188,7 +5154,7 @@
         <item h="1" x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="8"/>
-        <item x="9"/>
+        <item h="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5258,7 +5224,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="9"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -5432,7 +5398,7 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="10">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1"/>
         <i x="2"/>
         <i x="3"/>
@@ -5441,7 +5407,7 @@
         <i x="6"/>
         <i x="7"/>
         <i x="8"/>
-        <i x="9" s="1"/>
+        <i x="9"/>
       </items>
     </tabular>
   </data>
@@ -5455,16 +5421,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A3:E13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A3:E13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="YEAR " dataDxfId="5" dataCellStyle="Accent2">
+    <tableColumn id="1" name="YEAR " dataDxfId="4" dataCellStyle="Accent2">
       <calculatedColumnFormula>A3+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="US" dataDxfId="4"/>
-    <tableColumn id="3" name="UK " dataDxfId="3"/>
-    <tableColumn id="4" name="Germany" dataDxfId="2"/>
-    <tableColumn id="5" name="France" dataDxfId="1"/>
+    <tableColumn id="2" name="US" dataDxfId="3"/>
+    <tableColumn id="3" name="UK " dataDxfId="2"/>
+    <tableColumn id="4" name="Germany" dataDxfId="1"/>
+    <tableColumn id="5" name="France" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5760,7 +5726,7 @@
   <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5804,19 +5770,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="7">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,16 +5790,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5851,10 +5817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5870,13 +5836,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6073,14 +6039,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" display="https://tinnhanhchungkhoan.vn/fin-tech/cuoc-cach-mang-cua-fintech-da-chuyen-huong-245177.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>